--- a/results/UNEP-Gap-Report-2024-Sector-Demand-Change.xlsx
+++ b/results/UNEP-Gap-Report-2024-Sector-Demand-Change.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">sector</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Power</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">+0.9</t>
   </si>
   <si>
+    <t xml:space="preserve">+2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Industry</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">-0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.2</t>
   </si>
 </sst>
 </file>
@@ -461,97 +470,112 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
